--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics 7\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC42BA3-7E13-48B6-828C-7E1DF9619B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61D34F-ACAF-4AFC-A81B-576146A85368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84F3E25B-7B1B-4D52-9B49-887A3B699708}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Manufactor No.</t>
   </si>
@@ -186,13 +186,127 @@
   </si>
   <si>
     <t>ESP32-WROOM-32E-N4</t>
+  </si>
+  <si>
+    <t>ADS1299</t>
+  </si>
+  <si>
+    <t>ADS12996PAG</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0805 25VDC 1uF 10% X5R 1.25mm</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TDK/C2012X5R1E105K125AA?qs=LcTL%2F5vFEzGG9YqOcRZCaw%3D%3D</t>
+  </si>
+  <si>
+    <t>CL32A107MPVNNNE</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 100uF+/-20% 10V X5R 1210</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL32A107MPVNNNE?qs=X6jEic%2FHinBwGsPYz57S5w%3D%3D</t>
+  </si>
+  <si>
+    <t>C0805L106K8PACTU</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 10V 10uF X5R 0805</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KEMET/C0805L106K8PACTU?qs=wiJzLaOtgy7x15X4gjYo9g%3D%3D</t>
+  </si>
+  <si>
+    <t>C0805C103K5RACTM</t>
+  </si>
+  <si>
+    <t>0.01uF</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50V 0.01uF X7R 0805 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 50V 4700pF X7R 0805 10% </t>
+  </si>
+  <si>
+    <t>0.0047uF</t>
+  </si>
+  <si>
+    <t>C0805C472K5RACAUTO</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KEMET/C0805C472K5RACAUTO?qs=JTv2Ck4mjz3LaFUesyQYUA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KEMET/C0805C103K5RACTM?qs=qpftdsAwZwHsfQ5BKuI0uQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0805FR-100RL?qs=g6xwsc4j%252B%2FqfSt9luyhNYQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 0 Ohms 125 mW 0805 1 %</t>
+  </si>
+  <si>
+    <t>RC0805FR-100RL</t>
+  </si>
+  <si>
+    <t>10kOhm</t>
+  </si>
+  <si>
+    <t>0Ohm</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 10 kOhms 125 mW 0805 1%</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0805FR-0710KL?qs=7bY8808IzHq6vrU3BeiiYw%3D%3D</t>
+  </si>
+  <si>
+    <t>RC0805FR-07392KL</t>
+  </si>
+  <si>
+    <t>392kOhm</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 392 kOhms 125 mW 0805 1%</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0805FR-07392KL?qs=A5U98sTtWCLWFjUiIyfi8g%3D%3D</t>
+  </si>
+  <si>
+    <t>RC0805FR-074K99L</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 4.99 kOhms 125 mW 0805 1%</t>
+  </si>
+  <si>
+    <t>4.99kOhm</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0805FR-074K99L?qs=VLOqbHBAO5fvfJGSZZJrug%3D%3D</t>
+  </si>
+  <si>
+    <t>RC0805FR-072ML</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 2 MOhms 125 mW 0805 1%</t>
+  </si>
+  <si>
+    <t>2MOhm</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0805FR-072ML?qs=QrWOOBGzeCYIY7OrpfhRFA%3D%3D</t>
+  </si>
+  <si>
+    <t>OPA376AID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,12 +329,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -265,14 +373,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,16 +701,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F8ABEB-8716-426C-9FA0-0D25E1E08401}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="86.44140625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -657,7 +767,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -674,29 +784,29 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>865230345005</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
@@ -711,12 +821,12 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -729,7 +839,7 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -746,7 +856,7 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -757,13 +867,13 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -777,13 +887,13 @@
       <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -804,7 +914,7 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
@@ -813,30 +923,242 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>33</v>
       </c>
@@ -859,8 +1181,20 @@
     <hyperlink ref="F10" r:id="rId8" xr:uid="{633B3988-638C-459E-8A60-A8592E6696E0}"/>
     <hyperlink ref="F12" r:id="rId9" xr:uid="{F0A5C6D0-1BFB-4791-A537-BBD98D01FEF2}"/>
     <hyperlink ref="F16" r:id="rId10" xr:uid="{FC013391-1EA3-4AE4-BDCC-DF04FA101AF8}"/>
+    <hyperlink ref="F24" r:id="rId11" xr:uid="{F60055DC-744A-4989-9680-AC1E51588C35}"/>
+    <hyperlink ref="F25" r:id="rId12" xr:uid="{B2BB5031-0D6C-4421-A3B3-676419B0AC92}"/>
+    <hyperlink ref="F26" r:id="rId13" xr:uid="{DF5AF892-E682-44DB-BF92-A30E4BD350E7}"/>
+    <hyperlink ref="F27" r:id="rId14" xr:uid="{43CCC643-32F5-4932-B10B-29D2C98835E7}"/>
+    <hyperlink ref="F29" r:id="rId15" xr:uid="{E4476E09-AB5C-4541-8A24-DB85D3D0C0C2}"/>
+    <hyperlink ref="F28" r:id="rId16" xr:uid="{8E40813E-36F2-4433-8A21-4F4BFC438B18}"/>
+    <hyperlink ref="F30" r:id="rId17" xr:uid="{C3D137F6-0260-45F7-8460-74073B3849E4}"/>
+    <hyperlink ref="F31" r:id="rId18" xr:uid="{97E86D9B-F5BE-4D4A-8A0C-9500C860692C}"/>
+    <hyperlink ref="F32" r:id="rId19" xr:uid="{04AF8803-926E-4E98-8D4C-744800E7327E}"/>
+    <hyperlink ref="F33" r:id="rId20" xr:uid="{FD781DDF-209F-43FE-9345-220D2FAE8D72}"/>
+    <hyperlink ref="F34" r:id="rId21" xr:uid="{BE46AE96-F2F7-40D6-B079-135DC91FE75C}"/>
+    <hyperlink ref="F35" r:id="rId22" xr:uid="{4B53C72A-7A02-48A8-8259-29AA9204422E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics 7\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61D34F-ACAF-4AFC-A81B-576146A85368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A846B22-6E2B-4CE0-AE52-4809E96E1E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84F3E25B-7B1B-4D52-9B49-887A3B699708}"/>
+    <workbookView xWindow="4008" yWindow="3672" windowWidth="13824" windowHeight="7176" xr2:uid="{84F3E25B-7B1B-4D52-9B49-887A3B699708}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -377,12 +377,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F8ABEB-8716-426C-9FA0-0D25E1E08401}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +805,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
@@ -826,7 +825,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -939,7 +938,7 @@
       <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="s">
@@ -1029,7 +1028,7 @@
       <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" t="s">
         <v>62</v>
       </c>
       <c r="E28">
@@ -1046,7 +1045,7 @@
       <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" t="s">
         <v>63</v>
       </c>
       <c r="E29">
@@ -1057,13 +1056,13 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" t="s">
         <v>69</v>
       </c>
       <c r="E30">
@@ -1080,7 +1079,7 @@
       <c r="C31" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="E31">
@@ -1097,7 +1096,7 @@
       <c r="C32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" t="s">
         <v>77</v>
       </c>
       <c r="E32">
@@ -1114,7 +1113,7 @@
       <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" t="s">
         <v>80</v>
       </c>
       <c r="E33">
@@ -1131,7 +1130,7 @@
       <c r="C34" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
       <c r="E34">
@@ -1148,7 +1147,7 @@
       <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" t="s">
         <v>45</v>
       </c>
       <c r="E35">
